--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc02c4a829257e4/Documents/Personal/projects/bluetooth-audio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{4FB5AB32-D425-4BE6-BD36-2E3FAA4B4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C451206C-ED10-4C64-BA6E-9FDEF17C9352}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{4FB5AB32-D425-4BE6-BD36-2E3FAA4B4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DFCDB8C-915D-4E92-BBF4-972EF1D658AA}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{49D08A49-7D4D-4255-9C0B-B147CF678ED3}"/>
+    <workbookView minimized="1" xWindow="19155" yWindow="-16200" windowWidth="16080" windowHeight="9255" activeTab="1" xr2:uid="{49D08A49-7D4D-4255-9C0B-B147CF678ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Buck converter" sheetId="1" r:id="rId1"/>
+    <sheet name="RF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -257,7 +258,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -338,20 +339,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -685,6 +685,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618C1D49-BE40-7C7F-10CB-B104C586F123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640773" y="346365"/>
+          <a:ext cx="5437909" cy="4555030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1004,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0CDA7-FFA5-4B65-AC33-99D61553F876}">
   <dimension ref="A20:Y97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
@@ -1047,7 +1096,7 @@
       <c r="Q37" t="s">
         <v>19</v>
       </c>
-      <c r="R37" s="10" t="s">
+      <c r="R37" t="s">
         <v>70</v>
       </c>
       <c r="S37" s="1" t="s">
@@ -1442,4 +1491,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBA4D58-95DE-4AC6-A317-818729DB4475}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc02c4a829257e4/Documents/Personal/projects/bluetooth-audio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{4FB5AB32-D425-4BE6-BD36-2E3FAA4B4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DFCDB8C-915D-4E92-BBF4-972EF1D658AA}"/>
+  <xr:revisionPtr revIDLastSave="826" documentId="8_{4FB5AB32-D425-4BE6-BD36-2E3FAA4B4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C4D5E3-1B8E-43B9-8994-F3424C718E1A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19155" yWindow="-16200" windowWidth="16080" windowHeight="9255" activeTab="1" xr2:uid="{49D08A49-7D4D-4255-9C0B-B147CF678ED3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{49D08A49-7D4D-4255-9C0B-B147CF678ED3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Buck converter" sheetId="1" r:id="rId1"/>
-    <sheet name="RF" sheetId="2" r:id="rId2"/>
+    <sheet name="System design" sheetId="3" r:id="rId1"/>
+    <sheet name="ESP-32" sheetId="4" r:id="rId2"/>
+    <sheet name="Specifications" sheetId="5" r:id="rId3"/>
+    <sheet name="PCB checks" sheetId="6" r:id="rId4"/>
+    <sheet name="Power" sheetId="1" r:id="rId5"/>
+    <sheet name="STM32WB" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="289">
   <si>
     <t>Ilp-p</t>
   </si>
@@ -250,6 +254,662 @@
   </si>
   <si>
     <t>From recommended values table</t>
+  </si>
+  <si>
+    <t>Nordic</t>
+  </si>
+  <si>
+    <t>https://www.nordicsemi.com/Products/Development-hardware/nRF5340-Audio-DK</t>
+  </si>
+  <si>
+    <t>Design kit that uses nRF5340 for bluetooth and Cirrus CS47L63 for audio DSP</t>
+  </si>
+  <si>
+    <t>Noise and interference</t>
+  </si>
+  <si>
+    <t>https://www.diyaudio.com/community/threads/bluetooth-audio-receiver-possible-solution-for-all-kind-of-noise.384052/</t>
+  </si>
+  <si>
+    <t>NXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NXH3670UK </t>
+  </si>
+  <si>
+    <t>Ultra-low power 2.4 GHz Bluetooth Low Energy transceiver for audio streaming</t>
+  </si>
+  <si>
+    <t>DSP for audio processing</t>
+  </si>
+  <si>
+    <t>https://www.nxp.com/products/wireless-connectivity/bluetooth-le-audio/nxh3670adk-development-kit:NXH3670ADK</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Smart speaker solution</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/solution/smart-speaker</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>Bluetooth LE only</t>
+  </si>
+  <si>
+    <t>STM32WB ruled out because it only supports BLE audio which is not compatible with all phones currently</t>
+  </si>
+  <si>
+    <t>Requires external flash</t>
+  </si>
+  <si>
+    <t>Bluetooth LE and Bluetooth (Classic)</t>
+  </si>
+  <si>
+    <t>Requires external audio codec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jlcpcb.com/partdetail/339918-ES8388/C365736 </t>
+  </si>
+  <si>
+    <t>ESP-32D0WD-V3</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/EspressifSystems-ESP32_D0WDV3/C967021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio board reference: </t>
+  </si>
+  <si>
+    <t>https://docs.espressif.com/projects/esp-adf/en/latest/design-guide/dev-boards/board-esp32-lyrat-v4.3.html</t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Implemented?</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Efficient regulation from 12V battery supply to 3V3 VCC</t>
+  </si>
+  <si>
+    <t>Buck converter</t>
+  </si>
+  <si>
+    <t>Able to handle car battery voltage spikes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eevblog.com/forum/beginners/powering-electronics-with-12v-in-car-protection/
+https://www.eevblog.com/forum/projects/design-of-automotive-electronics/ </t>
+  </si>
+  <si>
+    <t>7V UVLO on input.</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/TexasInstruments-TPS5430DDAR/C9864</t>
+  </si>
+  <si>
+    <t>Buck IC (TPS5430) has built in UVLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Buck converter circuitry rated for higher than 12V. How much higher? (36V at least)</t>
+  </si>
+  <si>
+    <t>TVS on V_IN</t>
+  </si>
+  <si>
+    <t>Rate to 100V+</t>
+  </si>
+  <si>
+    <t>TPS5430</t>
+  </si>
+  <si>
+    <t>Undervoltage protection</t>
+  </si>
+  <si>
+    <t>Phone can connect to device via bluetooth to stream audio</t>
+  </si>
+  <si>
+    <t>Configure device as bluetooth "sink"</t>
+  </si>
+  <si>
+    <t>Check that ESP32 bluetooth stack can do this. Investigate A2DP protocol and HF (Hands free interface)</t>
+  </si>
+  <si>
+    <t>Can connect to all phones</t>
+  </si>
+  <si>
+    <t>Use bluetooth classic (instead of BLE audio)</t>
+  </si>
+  <si>
+    <t>Rules out STM32WB family of chips (BLE audio only)</t>
+  </si>
+  <si>
+    <t>Toolchain and SDKs available to hobbyists</t>
+  </si>
+  <si>
+    <t>Use ESP / Nordic instead of Qualcomm</t>
+  </si>
+  <si>
+    <t>Nordic is BLE audio focused. Use ESP</t>
+  </si>
+  <si>
+    <t>Provide external flash for program storage (ESP32 specific)</t>
+  </si>
+  <si>
+    <t>Use external flash IC</t>
+  </si>
+  <si>
+    <t>Low cost antenna</t>
+  </si>
+  <si>
+    <t>PCB trace antenna inverted F design</t>
+  </si>
+  <si>
+    <t>Option to use off the shelf 2.4GHz antenna</t>
+  </si>
+  <si>
+    <t>RF switch to enable / disable on board antenna?</t>
+  </si>
+  <si>
+    <t>Different board variants?</t>
+  </si>
+  <si>
+    <t>high quality audio</t>
+  </si>
+  <si>
+    <t>Offboard audio codec / DAC</t>
+  </si>
+  <si>
+    <t>Connects to aux input of car radio</t>
+  </si>
+  <si>
+    <t>Onboard audio barrel jack connector - use standard aux cable to connect to car radio aux.</t>
+  </si>
+  <si>
+    <t>Configure as Hands Free Device</t>
+  </si>
+  <si>
+    <t>MEMS microphone on board</t>
+  </si>
+  <si>
+    <t>Codec supports microphone input</t>
+  </si>
+  <si>
+    <t>Bidirectional i2s?</t>
+  </si>
+  <si>
+    <t>ESP bluetooth stack can support correct bluetooth handsfree protocol?</t>
+  </si>
+  <si>
+    <t>Any buttons required?</t>
+  </si>
+  <si>
+    <t>Controllable Equaliser</t>
+  </si>
+  <si>
+    <t>DSP capabilities on microcontroller</t>
+  </si>
+  <si>
+    <t>https://docs.espressif.com/projects/esp-dsp/en/latest/esp32/index.html</t>
+  </si>
+  <si>
+    <t>Battery backup</t>
+  </si>
+  <si>
+    <t>Powered from coin cell with battery charging circuitry</t>
+  </si>
+  <si>
+    <t>ES8388</t>
+  </si>
+  <si>
+    <t>Digital VDD = 1.8V</t>
+  </si>
+  <si>
+    <t>Analog VDD = 3.3V</t>
+  </si>
+  <si>
+    <t>Abandoned in favour of LDO only (40V tolerant LDO)</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/datasheet/lcsc_datasheet_1811151523_STMicroelectronics-LM317MDT-TR_C68136.pdf</t>
+  </si>
+  <si>
+    <t>V_ref</t>
+  </si>
+  <si>
+    <t>V_out</t>
+  </si>
+  <si>
+    <t>I_adj</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Use 470 + 56</t>
+  </si>
+  <si>
+    <t>usblc6-2sc6</t>
+  </si>
+  <si>
+    <t>Finalised Spec</t>
+  </si>
+  <si>
+    <t>Consideration</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Powered from car battery via USB cable into cigarette lighter socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vin = dirty 5V. </t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Power subsystem</t>
+  </si>
+  <si>
+    <t>Working voltage range 3.3-12V</t>
+  </si>
+  <si>
+    <t>Wide-ish voltage range LDO regulator.</t>
+  </si>
+  <si>
+    <t>Current sufficient to power Micro, codec, bluetooth communications</t>
+  </si>
+  <si>
+    <t>Budget roughly 300mA (1.5 SF)</t>
+  </si>
+  <si>
+    <t>Need to find a smaller regulator</t>
+  </si>
+  <si>
+    <t>ESP32 VCC = 3.3V</t>
+  </si>
+  <si>
+    <t>Primary LDO = 3v3</t>
+  </si>
+  <si>
+    <t>Audio codec AVDD = 3v3</t>
+  </si>
+  <si>
+    <t>Run off primary LDO</t>
+  </si>
+  <si>
+    <t>Audio codec DVDD = 1.8V</t>
+  </si>
+  <si>
+    <t>Secondary linear regulator = 1.8V</t>
+  </si>
+  <si>
+    <t>High quality audio</t>
+  </si>
+  <si>
+    <t>ESP DAC not perfect for audio - use separate stereo codec</t>
+  </si>
+  <si>
+    <t>ES8388 (Everest Semiconductor)</t>
+  </si>
+  <si>
+    <t>Audio out over aux cable</t>
+  </si>
+  <si>
+    <t>Stereo barrel jack 3.5mm required.</t>
+  </si>
+  <si>
+    <t>Audio in via microphone on board</t>
+  </si>
+  <si>
+    <t>Consider PDM MEMS microphone</t>
+  </si>
+  <si>
+    <t>For HFA eventually - need full duplex audio in and out</t>
+  </si>
+  <si>
+    <t>Full duplex audio required for ES8388 to ESP32 over i2s</t>
+  </si>
+  <si>
+    <t>Check i2s pin config for this.</t>
+  </si>
+  <si>
+    <t>Option to reset the ESP32 chip</t>
+  </si>
+  <si>
+    <t>Pull EN to ground.</t>
+  </si>
+  <si>
+    <t>2x1 testpoint EN/GND</t>
+  </si>
+  <si>
+    <t>External MHz crystal required for ESP32</t>
+  </si>
+  <si>
+    <t>Spec crystal load caps as per ESP HW design guide</t>
+  </si>
+  <si>
+    <t>2x 18pF, 10pF 40MHz crystal</t>
+  </si>
+  <si>
+    <t>Visual indicators for ESP32</t>
+  </si>
+  <si>
+    <t>3x LEDS, Blue, green and red</t>
+  </si>
+  <si>
+    <t>TODO on free GPIOs</t>
+  </si>
+  <si>
+    <t>2.4GHz PCB trace antenna</t>
+  </si>
+  <si>
+    <t>Matching PI network required</t>
+  </si>
+  <si>
+    <t>research how to size these components</t>
+  </si>
+  <si>
+    <t>50 ohm controlled impedance traces</t>
+  </si>
+  <si>
+    <t>size according to PCB stackup</t>
+  </si>
+  <si>
+    <t>Best practice - solid ground plane below RF</t>
+  </si>
+  <si>
+    <t>4 layer PCB</t>
+  </si>
+  <si>
+    <t>ES8388 connects to barrel jack on one of the out channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog might be required because ES8388 takes a line / mic in. </t>
+  </si>
+  <si>
+    <t>Programmable over USB</t>
+  </si>
+  <si>
+    <t>ESP might have USB-UART built in?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backup SWD pins </t>
+  </si>
+  <si>
+    <t>USB C housing (USB 2)</t>
+  </si>
+  <si>
+    <t>USB connector on board</t>
+  </si>
+  <si>
+    <t>EMI protected</t>
+  </si>
+  <si>
+    <t>USB Shield ungrounded - Ground on the source side</t>
+  </si>
+  <si>
+    <t>ESD protection on USB lines</t>
+  </si>
+  <si>
+    <t>Double check USB comms -Phils lab</t>
+  </si>
+  <si>
+    <t>Audio subsystem</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Able to configure as a bluetooth sink (device can connect to it and stream music one direction)</t>
+  </si>
+  <si>
+    <t>A2DP profile capable</t>
+  </si>
+  <si>
+    <t>ESP32 Bluetooth SDK supports this - double confirm</t>
+  </si>
+  <si>
+    <t>(Future) Can function as a handsfree device (audio in and out, with volume control etc)</t>
+  </si>
+  <si>
+    <t>Via the ESP32 Bluetooth SDK</t>
+  </si>
+  <si>
+    <t>Can connect to all phones (not just super modern ones)</t>
+  </si>
+  <si>
+    <t>Rules out BLE audio. Use bluetooth classic instead</t>
+  </si>
+  <si>
+    <t>Can store program in flash</t>
+  </si>
+  <si>
+    <t>ESP32 requires external flash chip</t>
+  </si>
+  <si>
+    <t>W25Q32JVZP (32Mbit = 4MB. ESP can support up to 8MB?)</t>
+  </si>
+  <si>
+    <t>Check power pin (SPI power)</t>
+  </si>
+  <si>
+    <t>ESP32-D0WD-V3</t>
+  </si>
+  <si>
+    <t>Bluetooth HFP profile capable</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Must be able to flash code to the board</t>
+  </si>
+  <si>
+    <t>Need control over ENABLE and BOOT pins</t>
+  </si>
+  <si>
+    <t>ESP32 doesn't have built in USB-UART bridge</t>
+  </si>
+  <si>
+    <t>(and all the nice USB-CDC, USB JTAG etc that comes with it)</t>
+  </si>
+  <si>
+    <t>ESP32 doesn't have built in USB hardware peripheral</t>
+  </si>
+  <si>
+    <t>(hence the lack of USB DP, DN in the pin summary)</t>
+  </si>
+  <si>
+    <t>Flash code over UART</t>
+  </si>
+  <si>
+    <t>On board or Off board USB-UART</t>
+  </si>
+  <si>
+    <t>`- ON board option:</t>
+  </si>
+  <si>
+    <t>https://www.silabs.com/interface/usb-bridges/classic/device.cp2102?tab=specs</t>
+  </si>
+  <si>
+    <t>`-OFF board option:</t>
+  </si>
+  <si>
+    <t>Use a CP2102 chip (presumably connects to RX, TX, EN, BOOT</t>
+  </si>
+  <si>
+    <t>Expose the UART RX, TX and use a external USB-serial converter, and manually toggle the EN and BOOT pins as required</t>
+  </si>
+  <si>
+    <t>Alternatively, use a ESP-PROG</t>
+  </si>
+  <si>
+    <t>Must be able to debug code</t>
+  </si>
+  <si>
+    <t>JTAG debugging can be broken out separately</t>
+  </si>
+  <si>
+    <t>Break out JTAG and connect to it with ESP-PROG</t>
+  </si>
+  <si>
+    <t>Doesn't support SWD</t>
+  </si>
+  <si>
+    <t>(SWD is only on ARM architectures. ESP is Xtensa)</t>
+  </si>
+  <si>
+    <t>https://cdn.pcbartists.com/wp-content/uploads/2022/12/ES8388-user-guide-application-note.pdf</t>
+  </si>
+  <si>
+    <t>ES8388 recommends differential analog mic in, L1-R1, L2-R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP - ES8388 interface - i2c for configuration, i2s for sound (slave mode) </t>
+  </si>
+  <si>
+    <t>https://docs.espressif.com/projects/esp-adf/en/latest/api-reference/abstraction/es8388.html</t>
+  </si>
+  <si>
+    <t>https://github.com/espressif/esp-adf</t>
+  </si>
+  <si>
+    <t>https://dl.espressif.com/dl/schematics/ESP32-LYRAT_V4.3-20220119.pdf</t>
+  </si>
+  <si>
+    <t>Reference schematic for ESP32 LyraT</t>
+  </si>
+  <si>
+    <t>NCP1117ST33T3G</t>
+  </si>
+  <si>
+    <t>TLV71318</t>
+  </si>
+  <si>
+    <t>1k i2c pullups</t>
+  </si>
+  <si>
+    <t>https://hackaday.com/2024/04/03/esp-prog-adapter-makes-your-esp32-tinkering-seamless/</t>
+  </si>
+  <si>
+    <t>https://jacobbokor.com/posts/esp-jtag-adapter/</t>
+  </si>
+  <si>
+    <t>https://www.robotics.org.za/SOP8-DIP-PROG?search=soic8</t>
+  </si>
+  <si>
+    <t>https://medium.com/@kazutaka.yoshinaga/esp32-understanding-the-automatic-boot-loader-mechanism-and-truth-table-68c4dcfd081b</t>
+  </si>
+  <si>
+    <t>https://www.phippselectronics.com/support/using-the-bluetooth-audio-receiver-amplifier-module-bt50-audio-pro/?srsltid=AfmBOoqDw51mJtkfJT7iajATPIMTeUkQ28yYEk6aSk8vb9BWVt05JKrG</t>
+  </si>
+  <si>
+    <t>https://electronics.stackexchange.com/questions/448187/esp32-with-ftdi-programmer</t>
+  </si>
+  <si>
+    <t>Check if ES8388 can do digital mic in (no it can't)</t>
+  </si>
+  <si>
+    <t>Auto-download circuit implemented with transistors to DTR, RTS</t>
+  </si>
+  <si>
+    <t>2x LEDs - Blue and Green implemented</t>
+  </si>
+  <si>
+    <t>Not in ESP. Only in ESP-Sx and ESP-Cx</t>
+  </si>
+  <si>
+    <t>n/a. Not an ARM core</t>
+  </si>
+  <si>
+    <t>USB-LC6-2SC6</t>
+  </si>
+  <si>
+    <t>Complete? (schematic)</t>
+  </si>
+  <si>
+    <t>Able to probe key points</t>
+  </si>
+  <si>
+    <t>i2c</t>
+  </si>
+  <si>
+    <t>mic input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spare mic </t>
+  </si>
+  <si>
+    <t>audio out</t>
+  </si>
+  <si>
+    <t>audio out spare</t>
+  </si>
+  <si>
+    <t>boot pin + GND</t>
+  </si>
+  <si>
+    <t>spare GPIOs</t>
+  </si>
+  <si>
+    <t>VDD, VDDSDIO</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>https://www.rfinsights.com/insights/design/concepts/quality-factor/</t>
+  </si>
+  <si>
+    <t>https://www.openems.de/</t>
+  </si>
+  <si>
+    <t>ch340k</t>
+  </si>
+  <si>
+    <t>PCB design TODOs</t>
+  </si>
+  <si>
+    <t>Check dielectrics for audio in-line caps</t>
+  </si>
+  <si>
+    <t>Fix all DRC errors</t>
+  </si>
+  <si>
+    <t>Check CAP1, CAP2 pins on ESP32</t>
+  </si>
+  <si>
+    <t>Check USB footprint</t>
   </si>
 </sst>
 </file>
@@ -260,7 +920,7 @@
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +957,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +978,14 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -334,12 +1008,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -352,8 +1073,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -373,6 +1140,417 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>535350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>96500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14486D31-6CF9-660B-F567-9D0F5D644C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="211789"/>
+          <a:ext cx="6469425" cy="4837711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238473</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F09E560-C301-21BA-0418-B0D6BE2812E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2734023" y="2466974"/>
+          <a:ext cx="5343177" cy="3031727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447908</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>197807</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C2F61A-D369-890B-EE4F-5C49E5E67B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2386038" y="1480102"/>
+          <a:ext cx="8148465" cy="5189679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>449000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29011D1D-475B-F56B-840C-6CCFD9416B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="9477376"/>
+          <a:ext cx="9497750" cy="1943371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>376512</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>128534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD44930A-4F66-2EF7-C976-0A7D8AD742D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="11464019"/>
+          <a:ext cx="6839905" cy="4496427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>140141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295907</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>75677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E19F03D-F83D-B6D6-D132-ADC02702084C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15886340" y="21789105"/>
+          <a:ext cx="7255960" cy="3051572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>175188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156952</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>165475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5640AA6-A1FD-4705-2A61-9917C83DD660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9974035" y="23280117"/>
+          <a:ext cx="8504936" cy="3847912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>391023</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>307817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4861B1-90F4-6E7E-D5E5-15C963A26FC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383000" y="16559893"/>
+          <a:ext cx="13317809" cy="2124371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>188860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3308EF88-FCA0-6AAE-95CB-FB713F9A404D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30232353" y="9486902"/>
+          <a:ext cx="8972548" cy="7027810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -682,10 +1860,142 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227115</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>162646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA86C11E-14D3-384D-BCEA-369802D64CCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="648229" y="18593594"/>
+          <a:ext cx="10221751" cy="5163271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186577</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>48030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FEA8CB-2214-FE97-29E7-DF51D6AD2840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="648229" y="24844375"/>
+          <a:ext cx="6020640" cy="2905530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>605297</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>50437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392BAEFE-1373-A420-C8B9-C427682B1F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1296458" y="29845000"/>
+          <a:ext cx="7087589" cy="3086531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -731,7 +2041,68 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>496836</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>14582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B939FB25-1F31-5924-4002-A1B581E5B87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7185526" y="368268"/>
+          <a:ext cx="14049073" cy="8101840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,18 +2421,1244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0CDA7-FFA5-4B65-AC33-99D61553F876}">
-  <dimension ref="A20:Y97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B82AAF-FD4F-4582-BBD9-E1248E782A1D}">
+  <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+    <sheetView topLeftCell="B1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="15" max="15" width="9.06640625" style="1"/>
-    <col min="18" max="18" width="44.46484375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="25.86328125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F18407-E529-4114-A56B-CDB1C2979C9E}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{C2D9E546-4E48-4B6B-B077-1A7F5EEAAF42}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{975725A2-E158-4904-A42F-90630A946673}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{8E1C459F-1F1D-4581-8821-5952D81EDA70}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFFBAFF-8947-4084-92DD-D93B3A44A18A}">
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="12"/>
+    <col min="2" max="3" width="27.3984375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" customWidth="1"/>
+    <col min="7" max="7" width="60.06640625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="E15" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="26" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B31" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B33" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B37" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B39" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B40" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C41" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C42" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B43" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C45" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E46" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B47" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C48" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E49" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B50" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B51" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B52" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B53" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B54" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B56" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D57" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B58" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B60" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B62" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C63" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C64" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C65" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B67" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C68" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C69" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B71" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C72" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B75" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B77" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E77" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C78" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C79" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C80" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C81" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C82" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E82" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C83" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D84" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B86" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C87" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B89" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C90" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C91" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C92" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C93" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C94" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C95" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C96" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C97" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A26:G26"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G82" r:id="rId1" xr:uid="{AE6E8CD3-CE05-4E11-AB94-C2D2E53F54C1}"/>
+    <hyperlink ref="G40" r:id="rId2" xr:uid="{161879B9-8964-49BA-93E6-52B04466730F}"/>
+    <hyperlink ref="G41" r:id="rId3" xr:uid="{8E7723A3-FA5F-4A32-9BB8-45B6C2412138}"/>
+    <hyperlink ref="G42" r:id="rId4" xr:uid="{770DE760-6D01-495D-B4E3-0C55DE4558C1}"/>
+    <hyperlink ref="G39" r:id="rId5" xr:uid="{60918D76-E4D6-4E2F-9CBB-02A8988CB9A3}"/>
+    <hyperlink ref="G77" r:id="rId6" xr:uid="{976217E8-9409-4D58-8C3E-14701B3E80B2}"/>
+    <hyperlink ref="H77" r:id="rId7" xr:uid="{B4E423BD-7BA4-40A4-90D3-09CF69B23931}"/>
+    <hyperlink ref="H78" r:id="rId8" xr:uid="{1167BE93-6E02-45D3-958C-328B03C3C466}"/>
+    <hyperlink ref="H79" r:id="rId9" xr:uid="{BFA82FD4-8B89-4815-897A-A2AF8D1F9C77}"/>
+    <hyperlink ref="H82" r:id="rId10" xr:uid="{49C08944-CB5F-4181-9EAF-B9649E7C8B97}"/>
+    <hyperlink ref="G62" r:id="rId11" xr:uid="{EC24EEF0-7E46-4486-8946-2D897EFA4839}"/>
+    <hyperlink ref="G65" r:id="rId12" xr:uid="{F1B8656A-2D74-4C3D-B45E-7D20AC3B6875}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271526E-A0E8-4F25-B4A3-0A7E74FB5546}">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0CDA7-FFA5-4B65-AC33-99D61553F876}">
+  <dimension ref="A20:Y162"/>
+  <sheetViews>
+    <sheetView topLeftCell="A144" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R173" sqref="R173"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="15" max="15" width="9.1328125" style="1" bestFit="1"/>
+    <col min="16" max="16" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.3984375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
     <col min="21" max="21" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1419,7 +4016,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="15:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="15:20" x14ac:dyDescent="0.45">
       <c r="O91" s="1" t="s">
         <v>59</v>
       </c>
@@ -1484,6 +4081,90 @@
       </c>
       <c r="T97" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>148</v>
+      </c>
+      <c r="G133" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G134" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C155" t="s">
+        <v>150</v>
+      </c>
+      <c r="D155">
+        <v>1.25</v>
+      </c>
+      <c r="E155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C157" s="14">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>330</v>
+      </c>
+      <c r="E157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C158" s="14">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>526</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C159" t="s">
+        <v>152</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="E159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C160" t="s">
+        <v>153</v>
+      </c>
+      <c r="D160" s="3">
+        <f>D159*D158</f>
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C162" t="s">
+        <v>151</v>
+      </c>
+      <c r="D162" s="3">
+        <f>D155*(1+D158/D157)+D160</f>
+        <v>3.2950242424242422</v>
+      </c>
+      <c r="E162" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1493,16 +4174,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBA4D58-95DE-4AC6-A317-818729DB4475}">
-  <dimension ref="A1"/>
+  <dimension ref="C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dc02c4a829257e4/Documents/Personal/projects/bluetooth-audio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="826" documentId="8_{4FB5AB32-D425-4BE6-BD36-2E3FAA4B4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C4D5E3-1B8E-43B9-8994-F3424C718E1A}"/>
+  <xr:revisionPtr revIDLastSave="1018" documentId="8_{4FB5AB32-D425-4BE6-BD36-2E3FAA4B4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D6CCCD7-12E2-41DC-B723-D8EBBDFEA58E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{49D08A49-7D4D-4255-9C0B-B147CF678ED3}"/>
   </bookViews>
@@ -16,9 +16,12 @@
     <sheet name="System design" sheetId="3" r:id="rId1"/>
     <sheet name="ESP-32" sheetId="4" r:id="rId2"/>
     <sheet name="Specifications" sheetId="5" r:id="rId3"/>
-    <sheet name="PCB checks" sheetId="6" r:id="rId4"/>
-    <sheet name="Power" sheetId="1" r:id="rId5"/>
-    <sheet name="STM32WB" sheetId="2" r:id="rId6"/>
+    <sheet name="IS2083" sheetId="9" r:id="rId4"/>
+    <sheet name="STM32F4 + CC2564" sheetId="7" r:id="rId5"/>
+    <sheet name="Power budget" sheetId="8" r:id="rId6"/>
+    <sheet name="PCB checks" sheetId="6" r:id="rId7"/>
+    <sheet name="Power" sheetId="1" r:id="rId8"/>
+    <sheet name="STM32WB" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="354">
   <si>
     <t>Ilp-p</t>
   </si>
@@ -910,6 +913,206 @@
   </si>
   <si>
     <t>Check USB footprint</t>
+  </si>
+  <si>
+    <t>STM32 VCC = 3v3</t>
+  </si>
+  <si>
+    <t>CC2564 VCC = 1v8</t>
+  </si>
+  <si>
+    <t>Rechargeable via USB-C PD</t>
+  </si>
+  <si>
+    <t>Current sufficient to power Micro, codec, bluetooth controller</t>
+  </si>
+  <si>
+    <t>STM32 DAC not perfect for audio - use separate stereo codec</t>
+  </si>
+  <si>
+    <t>uC - ES8388 interface - i2c for configuration</t>
+  </si>
+  <si>
+    <t>BT controller - ES interface: i2s bypasses uC</t>
+  </si>
+  <si>
+    <t>Full duplex audio required for ES8388 to BTC over i2s</t>
+  </si>
+  <si>
+    <t>ES8388 connects to barrel jack on one of the line out channels</t>
+  </si>
+  <si>
+    <t>Bluetooth controller + uC</t>
+  </si>
+  <si>
+    <t>TI CC2564 dual mode BT controller (HCI) - host controlled interface - requires separate uC</t>
+  </si>
+  <si>
+    <t>TI CC2564</t>
+  </si>
+  <si>
+    <t>STM32F4 has built in flash</t>
+  </si>
+  <si>
+    <t>Option to reset the uC</t>
+  </si>
+  <si>
+    <t>Check reset connection / flow to BTC</t>
+  </si>
+  <si>
+    <t>External MHz crystal required for STM32</t>
+  </si>
+  <si>
+    <t>Spec crystal load caps as per ST app note</t>
+  </si>
+  <si>
+    <t>Visual indicators for uC</t>
+  </si>
+  <si>
+    <t>STM32F4 has built in USB controller. But also include SWD</t>
+  </si>
+  <si>
+    <t>Confirm for STM</t>
+  </si>
+  <si>
+    <t>SWD, and JTAG debugging can be broken out separately</t>
+  </si>
+  <si>
+    <t>Powered from lithium coin cell</t>
+  </si>
+  <si>
+    <t>Vin = 3.2 - 4.2V (3.7V nominal)</t>
+  </si>
+  <si>
+    <t>TPS63802DLAR (0.6USD)</t>
+  </si>
+  <si>
+    <t>MCP73831</t>
+  </si>
+  <si>
+    <t>Battery that can supply 100mA</t>
+  </si>
+  <si>
+    <t>LIR2450</t>
+  </si>
+  <si>
+    <t>battery holder</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Keystone-3008TR/C238100</t>
+  </si>
+  <si>
+    <t>STM32F4</t>
+  </si>
+  <si>
+    <t>CC2564</t>
+  </si>
+  <si>
+    <t>Working V</t>
+  </si>
+  <si>
+    <t>Power (mW)</t>
+  </si>
+  <si>
+    <t>112mA</t>
+  </si>
+  <si>
+    <t>Current (mA)</t>
+  </si>
+  <si>
+    <t>STM32 + CC2564 based system</t>
+  </si>
+  <si>
+    <t>IS2083 all in one SoC system</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>A2DP mode</t>
+  </si>
+  <si>
+    <t>Continuous RX</t>
+  </si>
+  <si>
+    <t>Continuous TX</t>
+  </si>
+  <si>
+    <t>Built in Li-ion / LiPo charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS2083 A2DP: 12mA
+Continuous TX/RX: Max 50mA
+DAC: 8mA
+</t>
+  </si>
+  <si>
+    <t>LIR2450 - coin cell, max 125 mA, 120mAh</t>
+  </si>
+  <si>
+    <t>SMD, fits LIR2450, bottom side mounted</t>
+  </si>
+  <si>
+    <t>Support MIC in, stereo audio out</t>
+  </si>
+  <si>
+    <t>IS2083 has built in DAC / Codec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS2083 supports single stereo digital MIC or dual analog stereo.
+</t>
+  </si>
+  <si>
+    <t>(Optional) - audio in via AUX</t>
+  </si>
+  <si>
+    <t>Configure uC as Audio Transceiver</t>
+  </si>
+  <si>
+    <t>Dual Mode Bluetooth SoC</t>
+  </si>
+  <si>
+    <t>IS2083BM implements A2DP sink, HFP</t>
+  </si>
+  <si>
+    <t>LIR2450 - CC 24mA CV 4.20V
+IS2083 accepts 5V (ADAP_IN) to charge battery - wire this from USB-C</t>
+  </si>
+  <si>
+    <t>External MHz crystal required for uC</t>
+  </si>
+  <si>
+    <t>16MHz with external load caps</t>
+  </si>
+  <si>
+    <t>2x LEDS, Blue, green, connect to IS2083 LED driver (can sink 0.35mA each)</t>
+  </si>
+  <si>
+    <t>Yes, external HW reset, active low (RST_N)</t>
+  </si>
+  <si>
+    <t>IS2083BM has built in flash (16MBit / 2MB)</t>
+  </si>
+  <si>
+    <t>2 wire JTAG built in</t>
+  </si>
+  <si>
+    <t>Control buttons</t>
+  </si>
+  <si>
+    <t>GPIO pins available for FWD, PLAY/PAUSE, REV, VOL_DB, VOL_UP</t>
+  </si>
+  <si>
+    <t>uC, codec, bluetooth transceiver all in one</t>
+  </si>
+  <si>
+    <t>Use IS2083BM in embedded mode</t>
+  </si>
+  <si>
+    <t>Matching PI network required (specified in Datasheet)</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1263,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1109,6 +1312,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,6 +1338,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2508,7 +2732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F18407-E529-4114-A56B-CDB1C2979C9E}">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2583,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFFBAFF-8947-4084-92DD-D93B3A44A18A}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2598,15 +2822,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -2938,15 +3162,15 @@
     </row>
     <row r="25" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="26" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
@@ -3606,11 +3830,1707 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A56080-762C-4044-85B6-92A46EF95B07}">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="61.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="12"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="12"/>
+      <c r="E9" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="E10" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="E11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="E12" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="E15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
+      <c r="E16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="E19" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="12"/>
+      <c r="C21" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="12"/>
+      <c r="B25" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E27" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E28" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E29" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="E30" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="12"/>
+      <c r="E32" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
+      <c r="E33" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="12"/>
+      <c r="E34" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="12"/>
+      <c r="E36" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="12"/>
+      <c r="B37" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="12"/>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
+      <c r="E38" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="12"/>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="12"/>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="12"/>
+      <c r="E41" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="12"/>
+      <c r="B42" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="12"/>
+      <c r="E43" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="12"/>
+      <c r="E44" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="12"/>
+      <c r="E45" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="12"/>
+      <c r="B46" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="C47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="E48" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="12"/>
+      <c r="E49" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="12"/>
+      <c r="B50" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="12"/>
+      <c r="E51" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="12"/>
+      <c r="E52" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="12"/>
+      <c r="E53" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="12"/>
+      <c r="B54" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" t="s">
+        <v>309</v>
+      </c>
+      <c r="E54" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="12"/>
+      <c r="C55" t="s">
+        <v>348</v>
+      </c>
+      <c r="E55" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="12"/>
+      <c r="E56" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="12"/>
+      <c r="B57" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="12"/>
+      <c r="C58" t="s">
+        <v>273</v>
+      </c>
+      <c r="E58" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="12"/>
+      <c r="C59" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="12"/>
+      <c r="C60" t="s">
+        <v>275</v>
+      </c>
+      <c r="E60" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="12"/>
+      <c r="C61" t="s">
+        <v>276</v>
+      </c>
+      <c r="E61" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="12"/>
+      <c r="C62" t="s">
+        <v>277</v>
+      </c>
+      <c r="E62" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="12"/>
+      <c r="C63" t="s">
+        <v>278</v>
+      </c>
+      <c r="E63" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="12"/>
+      <c r="C64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E64" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="12"/>
+      <c r="C65" t="s">
+        <v>280</v>
+      </c>
+      <c r="E65" s="25"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="12"/>
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="12"/>
+      <c r="E67" s="25"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="12"/>
+      <c r="E68" s="25"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="12"/>
+      <c r="E69" s="25"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="12"/>
+      <c r="E70" s="25"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="12"/>
+      <c r="E71" s="25"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="12"/>
+      <c r="E72" s="25"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="12"/>
+      <c r="E73" s="25"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="12"/>
+      <c r="E74" s="25"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="12"/>
+      <c r="E75" s="25"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="12"/>
+      <c r="E76" s="25"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="12"/>
+      <c r="E77" s="25"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="12"/>
+      <c r="E78" s="25"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="12"/>
+      <c r="E79" s="25"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="12"/>
+      <c r="E80" s="25"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="12"/>
+      <c r="E81" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{82184F06-7443-4019-9CE1-A7ACCF4AFC47}"/>
+    <hyperlink ref="G15" r:id="rId2" xr:uid="{B0C4C303-D546-4A05-89EA-6866E2BA24BF}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{DDA2F16C-277F-4D1F-B1B2-DEAAFF1415D1}"/>
+    <hyperlink ref="G37" r:id="rId4" xr:uid="{8C86CF92-79DE-4F42-9876-0397DB56A676}"/>
+    <hyperlink ref="G40" r:id="rId5" xr:uid="{D2623325-AE7E-46B9-84B0-151DE0C14B6E}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{6FCDD72A-7D9C-4F75-9286-1A7D495CD31B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2A7F92-8CC6-47B6-A5ED-C83406DF1ECE}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="61.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="12"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="C15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
+      <c r="C16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="C19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="12"/>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="12"/>
+      <c r="C22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="12"/>
+      <c r="B24" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="E28" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="12"/>
+      <c r="E30" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="12"/>
+      <c r="E32" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="12"/>
+      <c r="E34" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="12"/>
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="12"/>
+      <c r="C37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="12"/>
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="12"/>
+      <c r="E39" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="12"/>
+      <c r="B40" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="12"/>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="12"/>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="12"/>
+      <c r="E43" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="12"/>
+      <c r="B44" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="12"/>
+      <c r="C45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="12"/>
+      <c r="E46" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="E47" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="B48" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="12"/>
+      <c r="E49" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="12"/>
+      <c r="E50" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="12"/>
+      <c r="E51" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="12"/>
+      <c r="B52" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="12"/>
+      <c r="E53" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="12"/>
+      <c r="E54" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="12"/>
+      <c r="B55" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="12"/>
+      <c r="C56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="12"/>
+      <c r="C57" t="s">
+        <v>274</v>
+      </c>
+      <c r="E57" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="12"/>
+      <c r="C58" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="12"/>
+      <c r="C59" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="12"/>
+      <c r="C60" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="12"/>
+      <c r="C61" t="s">
+        <v>278</v>
+      </c>
+      <c r="E61" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="12"/>
+      <c r="C62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="12"/>
+      <c r="C63" t="s">
+        <v>280</v>
+      </c>
+      <c r="E63" s="25"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="12"/>
+      <c r="E64" s="25"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="12"/>
+      <c r="E65" s="25"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="12"/>
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="12"/>
+      <c r="E67" s="25"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="12"/>
+      <c r="E68" s="25"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="12"/>
+      <c r="E69" s="25"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="12"/>
+      <c r="E70" s="25"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="12"/>
+      <c r="E71" s="25"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="12"/>
+      <c r="E72" s="25"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="12"/>
+      <c r="E73" s="25"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="12"/>
+      <c r="E74" s="25"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="12"/>
+      <c r="E75" s="25"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="12"/>
+      <c r="E76" s="25"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="12"/>
+      <c r="E77" s="25"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="12"/>
+      <c r="E78" s="25"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="12"/>
+      <c r="E79" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{448C13F9-1AD5-4CBD-85FD-80A7C9E098E6}"/>
+    <hyperlink ref="G15" r:id="rId2" xr:uid="{5F02D63E-1CBB-4855-B27A-D5B491F1376B}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{BFC786C2-C718-49EB-9C2D-84B62A6B4A96}"/>
+    <hyperlink ref="G35" r:id="rId4" xr:uid="{4A92A8CF-A3DC-4E70-94E5-467E5931157A}"/>
+    <hyperlink ref="G38" r:id="rId5" xr:uid="{820F4BAE-BF6F-4095-9448-B468AAEA9A4A}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{9871AACA-4C84-478E-B5EF-461D982B1F6B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B6397E-9ED3-41BB-8232-94529F745EB9}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.06640625" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1.8</v>
+      </c>
+      <c r="E5">
+        <f>C5/D5</f>
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1.8</v>
+      </c>
+      <c r="E10">
+        <f>C10/D10</f>
+        <v>7.7777777777777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11">
+        <f>D11*E11</f>
+        <v>46.74</v>
+      </c>
+      <c r="D11">
+        <v>3.8</v>
+      </c>
+      <c r="E11">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12">
+        <f>D12*E12</f>
+        <v>186.2</v>
+      </c>
+      <c r="D12">
+        <v>3.8</v>
+      </c>
+      <c r="E12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13">
+        <f>D13*E13</f>
+        <v>224.2</v>
+      </c>
+      <c r="D13">
+        <v>3.8</v>
+      </c>
+      <c r="E13">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8271526E-A0E8-4F25-B4A3-0A7E74FB5546}">
   <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3645,7 +5565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0CDA7-FFA5-4B65-AC33-99D61553F876}">
   <dimension ref="A20:Y162"/>
   <sheetViews>
@@ -4174,7 +6094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBA4D58-95DE-4AC6-A317-818729DB4475}">
   <dimension ref="C31"/>
   <sheetViews>
